--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -487,6 +487,170 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42600.792164351849</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>6409</v>
+      </c>
+      <c r="D3">
+        <v>9671</v>
+      </c>
+      <c r="E3">
+        <v>1129</v>
+      </c>
+      <c r="F3">
+        <v>161</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>66</v>
+      </c>
+      <c r="M3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42600.794490740744</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>8579</v>
+      </c>
+      <c r="D4">
+        <v>11114</v>
+      </c>
+      <c r="E4">
+        <v>1326</v>
+      </c>
+      <c r="F4">
+        <v>175</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>68</v>
+      </c>
+      <c r="I4">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>66</v>
+      </c>
+      <c r="M4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42600.830787037034</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>6736</v>
+      </c>
+      <c r="D5">
+        <v>8115</v>
+      </c>
+      <c r="E5">
+        <v>956</v>
+      </c>
+      <c r="F5">
+        <v>111</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>66</v>
+      </c>
+      <c r="M5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42600.879189814812</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>5830</v>
+      </c>
+      <c r="D6">
+        <v>6498</v>
+      </c>
+      <c r="E6">
+        <v>754</v>
+      </c>
+      <c r="F6">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>59</v>
+      </c>
+      <c r="I6">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,6 +651,47 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42602.582511574074</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6203</v>
+      </c>
+      <c r="D7">
+        <v>9316</v>
+      </c>
+      <c r="E7">
+        <v>1145</v>
+      </c>
+      <c r="F7">
+        <v>133</v>
+      </c>
+      <c r="G7">
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <v>67</v>
+      </c>
+      <c r="I7">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -692,6 +692,47 @@
         <v>49</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42604.890416666669</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>4034</v>
+      </c>
+      <c r="D8">
+        <v>4529</v>
+      </c>
+      <c r="E8">
+        <v>571</v>
+      </c>
+      <c r="F8">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\packages\Data\HZNP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\Packages\Data\HZNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,9 +384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -489,247 +491,124 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42600.792164351849</v>
+        <v>42600.879189814812</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>6409</v>
+        <v>5830</v>
       </c>
       <c r="D3">
-        <v>9671</v>
+        <v>6498</v>
       </c>
       <c r="E3">
-        <v>1129</v>
+        <v>754</v>
       </c>
       <c r="F3">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I3">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42600.794490740744</v>
+        <v>42602.582511574074</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>8579</v>
+        <v>6203</v>
       </c>
       <c r="D4">
-        <v>11114</v>
+        <v>9316</v>
       </c>
       <c r="E4">
-        <v>1326</v>
+        <v>1145</v>
       </c>
       <c r="F4">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>31</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42600.830787037034</v>
+        <v>42604.890416666669</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>6736</v>
+        <v>4034</v>
       </c>
       <c r="D5">
-        <v>8115</v>
+        <v>4529</v>
       </c>
       <c r="E5">
-        <v>956</v>
+        <v>571</v>
       </c>
       <c r="F5">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I5">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42600.879189814812</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>5830</v>
-      </c>
-      <c r="D6">
-        <v>6498</v>
-      </c>
-      <c r="E6">
-        <v>754</v>
-      </c>
-      <c r="F6">
-        <v>73</v>
-      </c>
-      <c r="G6">
-        <v>49</v>
-      </c>
-      <c r="H6">
-        <v>59</v>
-      </c>
-      <c r="I6">
-        <v>39</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>50</v>
-      </c>
-      <c r="M6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42602.582511574074</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>6203</v>
-      </c>
-      <c r="D7">
-        <v>9316</v>
-      </c>
-      <c r="E7">
-        <v>1145</v>
-      </c>
-      <c r="F7">
-        <v>133</v>
-      </c>
-      <c r="G7">
-        <v>61</v>
-      </c>
-      <c r="H7">
-        <v>67</v>
-      </c>
-      <c r="I7">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>49</v>
-      </c>
-      <c r="M7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42604.890416666669</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>4034</v>
-      </c>
-      <c r="D8">
-        <v>4529</v>
-      </c>
-      <c r="E8">
-        <v>571</v>
-      </c>
-      <c r="F8">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>61</v>
-      </c>
-      <c r="H8">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>54</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
-      <c r="M8">
         <v>80</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\Packages\Data\HZNP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\packages\Data\HZNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,48 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>totalScore</t>
+  </si>
+  <si>
+    <t>posWordPercentage</t>
+  </si>
+  <si>
+    <t>negWordPercentage</t>
+  </si>
+  <si>
+    <t>posPhrasePercentage</t>
+  </si>
+  <si>
+    <t>negPhrasePercentage</t>
+  </si>
+  <si>
+    <t>ElapsedMs</t>
+  </si>
+  <si>
+    <t>wordCount</t>
+  </si>
+  <si>
+    <t>sentenceCount</t>
+  </si>
+  <si>
+    <t>posWordCount</t>
+  </si>
+  <si>
+    <t>negWordCount</t>
+  </si>
+  <si>
+    <t>positivePhraseCount</t>
+  </si>
+  <si>
+    <t>negativePhraseCount</t>
+  </si>
+  <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>ElapsedMs</t>
-  </si>
-  <si>
-    <t>wordCount</t>
-  </si>
-  <si>
-    <t>sentenceCount</t>
-  </si>
-  <si>
-    <t>posWordCount</t>
-  </si>
-  <si>
-    <t>negWordCount</t>
-  </si>
-  <si>
-    <t>posWordPercentage</t>
-  </si>
-  <si>
-    <t>negWordPercentage</t>
-  </si>
-  <si>
-    <t>positivePhraseCount</t>
-  </si>
-  <si>
-    <t>negativePhraseCount</t>
-  </si>
-  <si>
-    <t>posPhrasePercentage</t>
-  </si>
-  <si>
-    <t>negPhrasePercentage</t>
-  </si>
-  <si>
-    <t>Bag</t>
   </si>
 </sst>
 </file>
@@ -101,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,31 +383,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -447,169 +444,8 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42587.798148148147</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2">
-        <v>52</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42600.879189814812</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>5830</v>
-      </c>
-      <c r="D3">
-        <v>6498</v>
-      </c>
-      <c r="E3">
-        <v>754</v>
-      </c>
-      <c r="F3">
-        <v>73</v>
-      </c>
-      <c r="G3">
-        <v>49</v>
-      </c>
-      <c r="H3">
-        <v>59</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>50</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42602.582511574074</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>6203</v>
-      </c>
-      <c r="D4">
-        <v>9316</v>
-      </c>
-      <c r="E4">
-        <v>1145</v>
-      </c>
-      <c r="F4">
-        <v>133</v>
-      </c>
-      <c r="G4">
-        <v>61</v>
-      </c>
-      <c r="H4">
-        <v>67</v>
-      </c>
-      <c r="I4">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>49</v>
-      </c>
-      <c r="M4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42604.890416666669</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>4034</v>
-      </c>
-      <c r="D5">
-        <v>4529</v>
-      </c>
-      <c r="E5">
-        <v>571</v>
-      </c>
-      <c r="F5">
-        <v>49</v>
-      </c>
-      <c r="G5">
-        <v>61</v>
-      </c>
-      <c r="H5">
-        <v>44</v>
-      </c>
-      <c r="I5">
-        <v>54</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Bag</t>
   </si>
 </sst>
 </file>
@@ -101,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -405,7 +409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -446,6 +450,50 @@
       </c>
       <c r="N1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42605.647986111115</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42605.885787037034</v>
+      </c>
+      <c r="B3">
+        <v>-6</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>12658</v>
+      </c>
+      <c r="H3">
+        <v>6725</v>
+      </c>
+      <c r="I3">
+        <v>876</v>
+      </c>
+      <c r="J3">
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <v>46</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42606.881157407406</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>3421</v>
+      </c>
+      <c r="H4">
+        <v>3260</v>
+      </c>
+      <c r="I4">
+        <v>384</v>
+      </c>
+      <c r="J4">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +584,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42607.887233796297</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>66</v>
+      </c>
+      <c r="F5">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>10751</v>
+      </c>
+      <c r="H5">
+        <v>21557</v>
+      </c>
+      <c r="I5">
+        <v>2335</v>
+      </c>
+      <c r="J5">
+        <v>275</v>
+      </c>
+      <c r="K5">
+        <v>248</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +628,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42608.890162037038</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>17507</v>
+      </c>
+      <c r="H6">
+        <v>24604</v>
+      </c>
+      <c r="I6">
+        <v>2819</v>
+      </c>
+      <c r="J6">
+        <v>235</v>
+      </c>
+      <c r="K6">
+        <v>216</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42611.884594907409</v>
+      </c>
+      <c r="B7">
+        <v>-10</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>8104</v>
+      </c>
+      <c r="H7">
+        <v>14159</v>
+      </c>
+      <c r="I7">
+        <v>1590</v>
+      </c>
+      <c r="J7">
+        <v>119</v>
+      </c>
+      <c r="K7">
+        <v>132</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,6 +716,94 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42612.884166666663</v>
+      </c>
+      <c r="B8">
+        <v>-12</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>77</v>
+      </c>
+      <c r="G8">
+        <v>11832</v>
+      </c>
+      <c r="H8">
+        <v>14416</v>
+      </c>
+      <c r="I8">
+        <v>1563</v>
+      </c>
+      <c r="J8">
+        <v>142</v>
+      </c>
+      <c r="K8">
+        <v>143</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42612.890694444446</v>
+      </c>
+      <c r="B9">
+        <v>-10</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>9089</v>
+      </c>
+      <c r="H9">
+        <v>14398</v>
+      </c>
+      <c r="I9">
+        <v>1565</v>
+      </c>
+      <c r="J9">
+        <v>152</v>
+      </c>
+      <c r="K9">
+        <v>146</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,6 +804,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42613.758136574077</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>10010</v>
+      </c>
+      <c r="H10">
+        <v>17746</v>
+      </c>
+      <c r="I10">
+        <v>1867</v>
+      </c>
+      <c r="J10">
+        <v>196</v>
+      </c>
+      <c r="K10">
+        <v>196</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42613.88585648148</v>
+      </c>
+      <c r="B11">
+        <v>-4</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>11659</v>
+      </c>
+      <c r="H11">
+        <v>20804</v>
+      </c>
+      <c r="I11">
+        <v>2226</v>
+      </c>
+      <c r="J11">
+        <v>212</v>
+      </c>
+      <c r="K11">
+        <v>217</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42614.884247685186</v>
+      </c>
+      <c r="B12">
+        <v>-14</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>10673</v>
+      </c>
+      <c r="H12">
+        <v>14293</v>
+      </c>
+      <c r="I12">
+        <v>1541</v>
+      </c>
+      <c r="J12">
+        <v>156</v>
+      </c>
+      <c r="K12">
+        <v>157</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42615.884733796294</v>
+      </c>
+      <c r="B13">
+        <v>-10</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <v>8968</v>
+      </c>
+      <c r="H13">
+        <v>15134</v>
+      </c>
+      <c r="I13">
+        <v>1468</v>
+      </c>
+      <c r="J13">
+        <v>170</v>
+      </c>
+      <c r="K13">
+        <v>162</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -980,6 +980,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42619.891273148147</v>
+      </c>
+      <c r="B14">
+        <v>-8</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>71</v>
+      </c>
+      <c r="G14">
+        <v>10007</v>
+      </c>
+      <c r="H14">
+        <v>15607</v>
+      </c>
+      <c r="I14">
+        <v>1691</v>
+      </c>
+      <c r="J14">
+        <v>187</v>
+      </c>
+      <c r="K14">
+        <v>175</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,6 +1024,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42620.886458333334</v>
+      </c>
+      <c r="B15">
+        <v>-10</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>10803</v>
+      </c>
+      <c r="H15">
+        <v>17151</v>
+      </c>
+      <c r="I15">
+        <v>1835</v>
+      </c>
+      <c r="J15">
+        <v>220</v>
+      </c>
+      <c r="K15">
+        <v>166</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,6 +1068,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42621.887118055558</v>
+      </c>
+      <c r="B16">
+        <v>-4</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <v>6749</v>
+      </c>
+      <c r="H16">
+        <v>10817</v>
+      </c>
+      <c r="I16">
+        <v>1087</v>
+      </c>
+      <c r="J16">
+        <v>150</v>
+      </c>
+      <c r="K16">
+        <v>112</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1112,6 +1112,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42622.887291666666</v>
+      </c>
+      <c r="B17">
+        <v>-22</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>8723</v>
+      </c>
+      <c r="H17">
+        <v>15227</v>
+      </c>
+      <c r="I17">
+        <v>1632</v>
+      </c>
+      <c r="J17">
+        <v>206</v>
+      </c>
+      <c r="K17">
+        <v>107</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,6 +1156,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42625.884247685186</v>
+      </c>
+      <c r="B18">
+        <v>-30</v>
+      </c>
+      <c r="C18">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>6914</v>
+      </c>
+      <c r="H18">
+        <v>10166</v>
+      </c>
+      <c r="I18">
+        <v>1027</v>
+      </c>
+      <c r="J18">
+        <v>174</v>
+      </c>
+      <c r="K18">
+        <v>124</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +584,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42632.880844907406</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>14753</v>
+      </c>
+      <c r="F3">
+        <v>1499</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>74</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>8799</v>
+      </c>
+      <c r="L3">
+        <v>278</v>
+      </c>
+      <c r="M3">
+        <v>178</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="T3">
+        <v>-0.93</v>
+      </c>
+      <c r="U3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +435,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -442,7 +448,7 @@
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42629.499189814815</v>
       </c>
@@ -584,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42632.880844907406</v>
       </c>
@@ -652,6 +658,83 @@
         <v>25</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>-0.19999900000000181</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42633.886377314811</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>18232</v>
+      </c>
+      <c r="F4">
+        <v>1956</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>74</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>9187</v>
+      </c>
+      <c r="L4">
+        <v>280</v>
+      </c>
+      <c r="M4">
+        <v>251</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.49</v>
+      </c>
+      <c r="S4" s="2">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="T4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="U4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +737,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42634.890879629631</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>-20</v>
+      </c>
+      <c r="E5">
+        <v>18082</v>
+      </c>
+      <c r="F5">
+        <v>1912</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>22325</v>
+      </c>
+      <c r="L5">
+        <v>283</v>
+      </c>
+      <c r="M5">
+        <v>253</v>
+      </c>
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.48</v>
+      </c>
+      <c r="S5" s="2">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="T5">
+        <v>-1.31</v>
+      </c>
+      <c r="U5">
+        <v>2.27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,6 +820,83 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>0.26000000000000156</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42635.888310185182</v>
+      </c>
+      <c r="B6">
+        <v>-7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>-32</v>
+      </c>
+      <c r="E6">
+        <v>16633</v>
+      </c>
+      <c r="F6">
+        <v>1693</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>78</v>
+      </c>
+      <c r="K6">
+        <v>18195</v>
+      </c>
+      <c r="L6">
+        <v>236</v>
+      </c>
+      <c r="M6">
+        <v>215</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>54.980878326848327</v>
+      </c>
+      <c r="R6">
+        <v>0.48</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-5.1499999999999997E-2</v>
+      </c>
+      <c r="U6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -427,25 +433,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -595,6 +601,83 @@
       <c r="W2">
         <v>0</v>
       </c>
+      <c r="X2">
+        <v>-0.41999999999999815</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42640.881863425922</v>
+      </c>
+      <c r="B3">
+        <v>-7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>-24</v>
+      </c>
+      <c r="E3">
+        <v>11604</v>
+      </c>
+      <c r="F3">
+        <v>1278</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>77</v>
+      </c>
+      <c r="K3">
+        <v>10141</v>
+      </c>
+      <c r="L3">
+        <v>177</v>
+      </c>
+      <c r="M3">
+        <v>131</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>62.499994791660193</v>
+      </c>
+      <c r="R3">
+        <v>0.48</v>
+      </c>
+      <c r="S3" s="2">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-6.6600000000000006E-2</v>
+      </c>
+      <c r="U3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -439,19 +439,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Buy</t>
   </si>
 </sst>
 </file>
@@ -433,25 +439,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -678,6 +684,83 @@
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>0.19000099999999875</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42641.890729166669</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>9980</v>
+      </c>
+      <c r="F4">
+        <v>974</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>99</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>6897</v>
+      </c>
+      <c r="L4">
+        <v>178</v>
+      </c>
+      <c r="M4">
+        <v>107</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>65.63785237683328</v>
+      </c>
+      <c r="R4">
+        <v>0.48</v>
+      </c>
+      <c r="S4" s="2">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-6.1899999999999997E-2</v>
+      </c>
+      <c r="U4">
+        <v>2.27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -445,19 +445,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,25 +439,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -761,6 +761,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>-0.18999800000000278</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42642.881666666668</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>22162</v>
+      </c>
+      <c r="F5">
+        <v>2317</v>
+      </c>
+      <c r="G5">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>14067</v>
+      </c>
+      <c r="L5">
+        <v>385</v>
+      </c>
+      <c r="M5">
+        <v>240</v>
+      </c>
+      <c r="N5">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>62.424257483948473</v>
+      </c>
+      <c r="R5">
+        <v>0.48</v>
+      </c>
+      <c r="S5" s="2">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-6.0699999999999997E-2</v>
+      </c>
+      <c r="U5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\packages\Data\HZNP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\Packages\Data\HZNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -101,22 +101,13 @@
     <t>UpDown</t>
   </si>
   <si>
-    <t>Neutral</t>
-  </si>
-  <si>
     <t>Bag</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
     <t>Down</t>
-  </si>
-  <si>
-    <t>Up</t>
   </si>
   <si>
     <t>Buy</t>
@@ -439,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -539,303 +532,149 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42639.881157407406</v>
+        <v>42641.890729166669</v>
       </c>
       <c r="B2">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>-22</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>6706</v>
+        <v>9980</v>
       </c>
       <c r="F2">
-        <v>664</v>
+        <v>974</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="J2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5343</v>
+        <v>6897</v>
       </c>
       <c r="L2">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="M2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
       <c r="O2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>65.63785237683328</v>
+      </c>
+      <c r="R2">
+        <v>0.48</v>
+      </c>
+      <c r="S2" s="2">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-6.1899999999999997E-2</v>
+      </c>
+      <c r="U2">
+        <v>2.27</v>
+      </c>
+      <c r="V2" t="s">
         <v>26</v>
-      </c>
-      <c r="Q2">
-        <v>69.196438835311199</v>
-      </c>
-      <c r="R2">
-        <v>0.5</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="T2" s="2">
-        <v>-3.8100000000000002E-2</v>
-      </c>
-      <c r="U2">
-        <v>2.33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-0.41999999999999815</v>
+        <v>-0.18999800000000278</v>
       </c>
       <c r="Y2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42640.881863425922</v>
+        <v>42642.881666666668</v>
       </c>
       <c r="B3">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3">
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>11604</v>
+        <v>22162</v>
       </c>
       <c r="F3">
-        <v>1278</v>
+        <v>2317</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3">
+        <v>77</v>
+      </c>
+      <c r="J3">
         <v>22</v>
       </c>
-      <c r="J3">
-        <v>77</v>
-      </c>
       <c r="K3">
-        <v>10141</v>
+        <v>14067</v>
       </c>
       <c r="L3">
-        <v>177</v>
+        <v>385</v>
       </c>
       <c r="M3">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="O3">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3">
-        <v>62.499994791660193</v>
+        <v>62.424257483948473</v>
       </c>
       <c r="R3">
         <v>0.48</v>
       </c>
       <c r="S3" s="2">
-        <v>6.6400000000000001E-2</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="T3" s="2">
-        <v>-6.6600000000000006E-2</v>
+        <v>-6.0699999999999997E-2</v>
       </c>
       <c r="U3">
         <v>2.2599999999999998</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.19000099999999875</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42641.890729166669</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>9980</v>
-      </c>
-      <c r="F4">
-        <v>974</v>
-      </c>
-      <c r="G4">
-        <v>62</v>
-      </c>
-      <c r="H4">
-        <v>37</v>
-      </c>
-      <c r="I4">
-        <v>99</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>6897</v>
-      </c>
-      <c r="L4">
-        <v>178</v>
-      </c>
-      <c r="M4">
-        <v>107</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4">
-        <v>65.63785237683328</v>
-      </c>
-      <c r="R4">
-        <v>0.48</v>
-      </c>
-      <c r="S4" s="2">
-        <v>6.8500000000000005E-2</v>
-      </c>
-      <c r="T4" s="2">
-        <v>-6.1899999999999997E-2</v>
-      </c>
-      <c r="U4">
-        <v>2.27</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>-0.18999800000000278</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42642.881666666668</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>22162</v>
-      </c>
-      <c r="F5">
-        <v>2317</v>
-      </c>
-      <c r="G5">
-        <v>61</v>
-      </c>
-      <c r="H5">
-        <v>38</v>
-      </c>
-      <c r="I5">
-        <v>77</v>
-      </c>
-      <c r="J5">
-        <v>22</v>
-      </c>
-      <c r="K5">
-        <v>14067</v>
-      </c>
-      <c r="L5">
-        <v>385</v>
-      </c>
-      <c r="M5">
-        <v>240</v>
-      </c>
-      <c r="N5">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5">
-        <v>62.424257483948473</v>
-      </c>
-      <c r="R5">
-        <v>0.48</v>
-      </c>
-      <c r="S5" s="2">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-6.0699999999999997E-2</v>
-      </c>
-      <c r="U5">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="V5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\Packages\Data\HZNP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\packages\Data\HZNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -438,19 +438,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -430,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -438,19 +438,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -677,6 +677,83 @@
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>-1.010000999999999</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42643.882881944446</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>20605</v>
+      </c>
+      <c r="F4">
+        <v>2141</v>
+      </c>
+      <c r="G4">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>94</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>14691</v>
+      </c>
+      <c r="L4">
+        <v>319</v>
+      </c>
+      <c r="M4">
+        <v>249</v>
+      </c>
+      <c r="N4">
+        <v>87</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4">
+        <v>55.97826736768193</v>
+      </c>
+      <c r="R4">
+        <v>0.46</v>
+      </c>
+      <c r="S4" s="2">
+        <v>6.3E-3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-0.10539999999999999</v>
+      </c>
+      <c r="U4">
+        <v>2.13</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Buy</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -754,6 +757,83 @@
       <c r="W4">
         <v>-2</v>
       </c>
+      <c r="X4">
+        <v>0.30999900000000125</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42646.879004629627</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>11025</v>
+      </c>
+      <c r="F5">
+        <v>1155</v>
+      </c>
+      <c r="G5">
+        <v>64</v>
+      </c>
+      <c r="H5">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>6870</v>
+      </c>
+      <c r="L5">
+        <v>203</v>
+      </c>
+      <c r="M5">
+        <v>104</v>
+      </c>
+      <c r="N5">
+        <v>57</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>41.304349401388201</v>
+      </c>
+      <c r="R5">
+        <v>0.46</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-8.0699999999999994E-2</v>
+      </c>
+      <c r="U5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="V5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -834,6 +834,83 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>0.6499990000000011</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42647.884305555555</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>20855</v>
+      </c>
+      <c r="F6">
+        <v>2145</v>
+      </c>
+      <c r="G6">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>82</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>17916</v>
+      </c>
+      <c r="L6">
+        <v>342</v>
+      </c>
+      <c r="M6">
+        <v>213</v>
+      </c>
+      <c r="N6">
+        <v>103</v>
+      </c>
+      <c r="O6">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>46.357611069683557</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>5.91E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-4.2099999999999999E-2</v>
+      </c>
+      <c r="U6">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -911,6 +911,83 @@
       <c r="W6">
         <v>0</v>
       </c>
+      <c r="X6">
+        <v>5.9999000000001246E-2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42648.886597222219</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>15151</v>
+      </c>
+      <c r="F7">
+        <v>1666</v>
+      </c>
+      <c r="G7">
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>91</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>13409</v>
+      </c>
+      <c r="L7">
+        <v>298</v>
+      </c>
+      <c r="M7">
+        <v>142</v>
+      </c>
+      <c r="N7">
+        <v>89</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>41.162214763508182</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="U7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Up</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -443,7 +446,7 @@
   <cols>
     <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
@@ -988,6 +991,83 @@
       <c r="W7">
         <v>0</v>
       </c>
+      <c r="X7">
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42649.879930555559</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>5975</v>
+      </c>
+      <c r="F8">
+        <v>681</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>65</v>
+      </c>
+      <c r="J8">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>7497</v>
+      </c>
+      <c r="L8">
+        <v>82</v>
+      </c>
+      <c r="M8">
+        <v>80</v>
+      </c>
+      <c r="N8">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <v>47.321424984051369</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+      <c r="U8">
+        <v>2.31</v>
+      </c>
+      <c r="V8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -1068,6 +1068,83 @@
       <c r="W8">
         <v>0</v>
       </c>
+      <c r="X8">
+        <v>-0.1400010000000016</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42650.878842592596</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>6602</v>
+      </c>
+      <c r="F9">
+        <v>646</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>91</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>5351</v>
+      </c>
+      <c r="L9">
+        <v>114</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9">
+        <v>48.072537934274806</v>
+      </c>
+      <c r="R9">
+        <v>0.49</v>
+      </c>
+      <c r="S9" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -444,19 +444,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -444,19 +444,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1143,6 +1143,83 @@
         <v>26</v>
       </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>-0.21000099999999833</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42653.879479166666</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>8519</v>
+      </c>
+      <c r="F10">
+        <v>865</v>
+      </c>
+      <c r="G10">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>88</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>5940</v>
+      </c>
+      <c r="L10">
+        <v>151</v>
+      </c>
+      <c r="M10">
+        <v>88</v>
+      </c>
+      <c r="N10">
+        <v>47</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>47.96375473473072</v>
+      </c>
+      <c r="R10">
+        <v>0.49</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5.21E-2</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-2.1399999999999999E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.25</v>
+      </c>
+      <c r="V10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/HZNP/HZNPBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>Strong Buy</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -446,7 +449,7 @@
   <cols>
     <col min="1" max="1" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
@@ -1222,6 +1225,83 @@
       <c r="W10">
         <v>0</v>
       </c>
+      <c r="X10">
+        <v>0.6499990000000011</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42654.883275462962</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>12138</v>
+      </c>
+      <c r="F11">
+        <v>1242</v>
+      </c>
+      <c r="G11">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <v>87</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>10936</v>
+      </c>
+      <c r="L11">
+        <v>199</v>
+      </c>
+      <c r="M11">
+        <v>117</v>
+      </c>
+      <c r="N11">
+        <v>36</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>58.438771163779279</v>
+      </c>
+      <c r="R11">
+        <v>0.49</v>
+      </c>
+      <c r="S11" s="2">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="U11">
+        <v>2.34</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
